--- a/DataSetBudget.xlsx
+++ b/DataSetBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{20003902-6C4E-7041-A55F-117A42441799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDC46A4-6A4C-FB46-B9EF-8BCCA0CFBD14}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{20003902-6C4E-7041-A55F-117A42441799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E0C6CE-29BF-3A4B-8455-F1EAC3D7A8DB}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="760" windowWidth="14700" windowHeight="17240" xr2:uid="{BA2D4AC3-C4FD-674E-BD60-C215A9D41363}"/>
+    <workbookView xWindow="15540" yWindow="760" windowWidth="14700" windowHeight="17200" xr2:uid="{BA2D4AC3-C4FD-674E-BD60-C215A9D41363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
     <t>SGB</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">MSL </t>
+  </si>
+  <si>
+    <t>Budget ($)</t>
   </si>
 </sst>
 </file>
@@ -121,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +427,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,12 +437,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1045</v>
@@ -446,7 +450,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>850</v>
@@ -454,7 +458,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>695</v>
@@ -462,7 +466,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2930</v>
@@ -470,7 +474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1190</v>
@@ -478,7 +482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1323.3333333333301</v>
@@ -486,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2377.5</v>
@@ -494,12 +498,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
